--- a/medicine/Psychotrope/Bowmore_(distillerie)/Bowmore_(distillerie).xlsx
+++ b/medicine/Psychotrope/Bowmore_(distillerie)/Bowmore_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bowmore est une distillerie de whisky située dans le village de Bowmore sur l’île d'Islay sur la côte occidentale de l’Écosse. Placée au centre de l’île célèbre pour sa production de whisky, la distillerie Bowmore se trouve sur la rive orientale du Loch Indaal, une grande baie de la côte ouest d’Islay. Son principal chai se trouve même au-dessous du niveau de la mer.
@@ -514,7 +526,9 @@
           <t>Embouteillage officiel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bowmore Legend 40 % sans indication d'âge
 Bowmore 9 ans 40 %
@@ -556,7 +570,9 @@
           <t>Embouteilleurs indépendants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Signatory Vintage 
 Bowmore 1970 rare reserve 56,6 %
